--- a/cost.xlsx
+++ b/cost.xlsx
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>2.1111111111111107</v>
+        <v>3.1006944444444446</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D24" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1163,6 +1163,111 @@
       </c>
       <c r="E17" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>42251</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>42251</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>42252</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>42252</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>42253</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26041666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>3.1006944444444446</v>
+        <v>3.3923611111111116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D24" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D26" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1268,6 +1268,36 @@
       <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>0.26041666666666674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>3.3923611111111116</v>
+        <v>3.6840277777777786</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D26" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D28" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1296,6 +1296,36 @@
         <v>0.75</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>42256</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>42256</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>3.6840277777777786</v>
+        <v>3.8506944444444451</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D28" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D30" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1328,6 +1328,36 @@
       <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>3.8506944444444451</v>
+        <v>4.1006944444444455</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D30" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D32" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1358,6 +1358,36 @@
       <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>42259</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>42260</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -235,6 +235,19 @@
   </si>
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業企画書</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -907,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +947,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>4.1006944444444455</v>
+        <v>4.8506944444444455</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -948,7 +961,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D32" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D36" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1388,6 +1401,69 @@
       <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -247,6 +247,42 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ修正</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴書により、社員テーブルの構造を修正</t>
+    <rPh sb="0" eb="3">
+      <t>リレキショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録用のユーザ作成</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -920,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G36"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,7 +983,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>4.8506944444444455</v>
+        <v>5.1423611111111125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -961,7 +997,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D36" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D40" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1464,6 +1500,78 @@
       </c>
       <c r="E36" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>42263</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>42263</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>42264</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>42264</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -283,6 +283,19 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要員一覧のエクセルの生成</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -956,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G40"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,7 +996,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>5.1423611111111125</v>
+        <v>5.4756944444444455</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -997,7 +1010,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D40" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D42" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1572,6 +1585,42 @@
       </c>
       <c r="E40" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -296,6 +296,16 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴書の解析</t>
+    <rPh sb="0" eb="3">
+      <t>リレキショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -969,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G42"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,7 +1006,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>5.4756944444444455</v>
+        <v>5.6006944444444455</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1010,7 +1020,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D42" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D43" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1621,6 +1631,24 @@
       </c>
       <c r="E42" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -306,6 +306,13 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ導入</t>
+    <rPh sb="3" eb="5">
+      <t>ドウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -979,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1006,7 +1013,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>5.6006944444444455</v>
+        <v>6.1215277777777786</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1020,7 +1027,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D43" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D46" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1649,6 +1656,60 @@
       </c>
       <c r="E43" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -313,6 +313,20 @@
     <t>データ導入</t>
     <rPh sb="3" eb="5">
       <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求書生成</t>
+    <rPh sb="0" eb="5">
+      <t>セイキュウショセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限管理</t>
+    <rPh sb="0" eb="4">
+      <t>ケンゲンカンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -986,15 +1000,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G46"/>
+  <dimension ref="A2:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,7 +1027,7 @@
       </c>
       <c r="G2" s="3">
         <f>SUM(D:D)</f>
-        <v>6.1215277777777786</v>
+        <v>7.1527777777777777</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1027,7 +1041,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D46" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D53" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -1710,6 +1724,132 @@
       </c>
       <c r="E46" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>42284</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>42293</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>42294</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>42295</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
